--- a/L00P00 - LC Traject/_Start/20231024_Zelfanalyse en reflectieformulier DVC.xlsx
+++ b/L00P00 - LC Traject/_Start/20231024_Zelfanalyse en reflectieformulier DVC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjan/Downloads/LC Traject/_Start/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1801nl.sharepoint.com/sites/LCModelkopie-Trainersoverleg/Gedeelde documenten/Trainers overleg/Intakes LC deelnemers/Arjan Kamberg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF4CE94-8A94-2545-A98D-3A6692D9230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{DBF4CE94-8A94-2545-A98D-3A6692D9230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760C6856-FD0A-49FD-B819-B9E0F1D03820}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4131C0D2-33C9-43BC-B2E1-2478D5A75DF8}"/>
+    <workbookView xWindow="2505" yWindow="0" windowWidth="23805" windowHeight="15735" xr2:uid="{4131C0D2-33C9-43BC-B2E1-2478D5A75DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Zelfanalyse formulier" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,100 +40,170 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={53E46D01-B9B6-4D6F-92ED-98C418F437B9}</author>
+    <author>tc={81B04151-62A8-4881-AA61-BC77269EB0E6}</author>
+    <author>tc={40B1A2A2-A229-4E43-B3FB-217CE2F895DC}</author>
+    <author>tc={3627D291-D1A8-4FC2-BAF3-C6AD9CB0255F}</author>
+    <author>tc={83673C5E-D2DA-49E6-84DA-923F8D959CF0}</author>
+    <author>tc={AD6739B1-C453-4AA6-A29F-EC09C41C8CB9}</author>
+    <author>tc={D41D517E-6D1F-4C50-8AE2-974F19FD3487}</author>
+    <author>tc={A27A72F9-C6AF-4FCA-BDD7-09410459C2F8}</author>
+    <author>tc={7C5F46FF-EDDD-4700-B650-09BBF2EB7389}</author>
+    <author>tc={80646D38-68A7-471F-BB92-D4D1081943C8}</author>
+    <author>tc={CCC51276-5B59-454C-A0DE-C89261F50C64}</author>
+    <author>tc={B87AF16A-8240-4427-B1FC-365A8791BDEC}</author>
+    <author>tc={1DD0446D-C0F2-44E0-99EA-DFDEEB88DEC2}</author>
+  </authors>
+  <commentList>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{53E46D01-B9B6-4D6F-92ED-98C418F437B9}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    hoe?
+Beantwoorden:
+    Na 5 jaar creativiteit en goede intenties veel onderwijs ontwikkeld en aangepast. Analyse onderwijs bronnen; 
+- gesprekjes met collega's
+- analyses studenten
+Nu vooral op basis van gevoel en goede intenties</t>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="1" shapeId="0" xr:uid="{81B04151-62A8-4881-AA61-BC77269EB0E6}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    interessant</t>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="2" shapeId="0" xr:uid="{40B1A2A2-A229-4E43-B3FB-217CE2F895DC}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    geen tijd... wel voor lc?</t>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="3" shapeId="0" xr:uid="{3627D291-D1A8-4FC2-BAF3-C6AD9CB0255F}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    hoe ga jij zorgen dat je voldoende gefacilliteerd wordt voor LC?</t>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="4" shapeId="0" xr:uid="{83673C5E-D2DA-49E6-84DA-923F8D959CF0}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    waar loop je nu tegenaan?</t>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="5" shapeId="0" xr:uid="{AD6739B1-C453-4AA6-A29F-EC09C41C8CB9}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    voldoende uitdaging dus.</t>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="6" shapeId="0" xr:uid="{D41D517E-6D1F-4C50-8AE2-974F19FD3487}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    in antwoord wederom tijd frustratie</t>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="7" shapeId="0" xr:uid="{A27A72F9-C6AF-4FCA-BDD7-09410459C2F8}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    waar staan jullie nu in dat proces? Wat is jouw rol daarin? waar loop je tegenaan?</t>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="8" shapeId="0" xr:uid="{7C5F46FF-EDDD-4700-B650-09BBF2EB7389}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    als je tijd zou hebben, wat zou dan nu heeft eerste aandacht van jou krijgen?</t>
+      </text>
+    </comment>
+    <comment ref="C51" authorId="9" shapeId="0" xr:uid="{80646D38-68A7-471F-BB92-D4D1081943C8}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    heb je collega's die op jouw niveau met jou kunnen sparren?</t>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="10" shapeId="0" xr:uid="{CCC51276-5B59-454C-A0DE-C89261F50C64}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    wederom frustratie</t>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="11" shapeId="0" xr:uid="{B87AF16A-8240-4427-B1FC-365A8791BDEC}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    Meer details geven, kaders en goede vooraarden van bijv. de basis..</t>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="12" shapeId="0" xr:uid="{1DD0446D-C0F2-44E0-99EA-DFDEEB88DEC2}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    zijn daarmee de problemen opgelost? of moet er eerst een vast curriculum staan? tijd worden vrij gemaakt? Goed over nadenken en sparren met TL bij schrijven van PVA</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+  <si>
+    <t>Zelfanalyse LC Leergang Da Vinci College</t>
+  </si>
   <si>
     <t>Naam:</t>
   </si>
   <si>
+    <t>Arjan Kamberg</t>
+  </si>
+  <si>
     <t>College/team:</t>
   </si>
   <si>
+    <t>MKR + Software development</t>
+  </si>
+  <si>
     <t>Datum:</t>
   </si>
   <si>
+    <t xml:space="preserve">Om optimaal te kunnen aansluiten op jouw beginsituatie, start de LC leergang met een nulmeting. Op basis van deze ingevulde zelfanalyse en CV voer je een intakegesprek met de trainer(s) en je leidinggevende. </t>
+  </si>
+  <si>
+    <t>De doelen en succescriteria in deze zelfanalyse zijn gebaseerd op het beroepsbeeld mbo LC docent en het functieprofiel LC docent van het Da Vinci College.</t>
+  </si>
+  <si>
     <t>Het gaat daarbij steeds om vaardigheden en om kennis.</t>
   </si>
   <si>
     <t>Hoe vul je de zelfanalyse in?</t>
   </si>
   <si>
-    <t>Toelichting SOLO taxonomie</t>
-  </si>
-  <si>
-    <t>Niveau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score </t>
-  </si>
-  <si>
-    <t>Beginnend</t>
-  </si>
-  <si>
-    <t>In ontwikkeling</t>
-  </si>
-  <si>
-    <t>Gevorderd</t>
-  </si>
-  <si>
-    <t>Expert</t>
-  </si>
-  <si>
-    <t>Domein 1: Het verzorgen van (beroeps)onderwijs voor studenten</t>
-  </si>
-  <si>
-    <t>Dit weet/kan ik al, laat ik in mijn praktijk zien</t>
-  </si>
-  <si>
-    <t>Zelf-analyse (1-4)</t>
-  </si>
-  <si>
-    <t>Succescriteria</t>
-  </si>
-  <si>
-    <t>Dit wil ik graag leren</t>
-  </si>
-  <si>
-    <t>Nul-meting na intake-gesprek (1-4)</t>
-  </si>
-  <si>
-    <t>Leerlogboek/reflectie gedurende de leergang: betekenisvolle leermomenten</t>
-  </si>
-  <si>
-    <t>Eindreflectie: dit heb ik geleerd</t>
-  </si>
-  <si>
-    <t>Na-meting  
-(1-4)</t>
-  </si>
-  <si>
-    <t>Domein 2: Het organiseren van (beroeps)onderwijs</t>
-  </si>
-  <si>
-    <t>Domein 3: Het vernieuwen van (beroeps)onderwijs</t>
-  </si>
-  <si>
-    <t>Domein 4: Het deelnemen aan - samenwerken met - het onderwijsteam</t>
-  </si>
-  <si>
-    <t>Domein 5: beroepshouding</t>
-  </si>
-  <si>
-    <t>pro-actief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">externe focus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">onderzoekende houding </t>
-  </si>
-  <si>
-    <t>reflecterend tov het team</t>
-  </si>
-  <si>
-    <t>stress bestendig</t>
-  </si>
-  <si>
     <r>
       <t>·</t>
     </r>
@@ -199,6 +270,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>Vervolgens vul je in kolom B een score 1, 2 , 3 of 4. De scores zijn gebaseerd op de SOLO taxonomie. Zie hieronder.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In kolom D noteer je wat je graag zou willen leren binnen het domein. </t>
     </r>
   </si>
   <si>
@@ -286,6 +380,21 @@
       </rPr>
       <t>Kolom G en H vul je in bij de afronding van de leergang.</t>
     </r>
+  </si>
+  <si>
+    <t>Als laatste vragen we je om een voorstel te doen voor een mogelijk doorbraakproject. Zie ook tabblad doorbraakproject</t>
+  </si>
+  <si>
+    <t>Toelichting SOLO taxonomie</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score </t>
+  </si>
+  <si>
+    <t>Beginnend</t>
   </si>
   <si>
     <r>
@@ -335,6 +444,9 @@
     </r>
   </si>
   <si>
+    <t>In ontwikkeling</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">De docent laat </t>
     </r>
@@ -382,6 +494,9 @@
     </r>
   </si>
   <si>
+    <t>Gevorderd</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">De docent </t>
     </r>
@@ -440,159 +555,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">zoekt actief naar vernieuwd onderwijs (bijv blended learning)… en implementeert. </t>
-  </si>
-  <si>
-    <t>legt verbindingen tussen diverse vakgebieden</t>
-  </si>
-  <si>
-    <t>evalueert en stelt het onderwijsproces bij (pdca)</t>
-  </si>
-  <si>
-    <t>denkt mee met leidinggevende over kwaliteit onderwijs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coördineert een vakgroep en/of een project binnen de opleiding of het team </t>
-  </si>
-  <si>
-    <t>draagt zorg voor de organisatie van nieuwe methodieken, praktijkopdrachten,  leerlijnen, lesplanning,  OER, examenplannen, leerlingenzorg en kwaliteitszorg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initieert vernieuwingen en ontwikkelingen (eigen vakgebied)  </t>
-  </si>
-  <si>
-    <t>maakt een vertaling van professionele competenties en taken/activiteiten naar het curriculum (backwards design)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">herkent de fase van teamontwikkeling en neemt initiatieven voor teamontwikkeling om het team te versterken </t>
-  </si>
-  <si>
-    <t>identificeert problemen en uitdagingen. benoemt kansen en obstakels en vertaalt deze naar acties</t>
-  </si>
-  <si>
-    <t>hanteert vernieuwende didactsiche methoden en werkvormen gebaseerd op het DVC onderwijsconcept</t>
-  </si>
-  <si>
-    <t>werkt met verschillende doelgroepen in meerdere niveaus waarbij doelgroep en niveau ieder hun eigen specifieke aanpak vragen</t>
-  </si>
-  <si>
-    <t>vertegenwoordigt het team/de opleiding/vakgroep bij toeleverende scholen en samenwerkende bedrijven</t>
-  </si>
-  <si>
-    <t>neemt initiatieven die de samenwerking tussen DVC en het werkveld/partners/overlegorganen bevordert</t>
-  </si>
-  <si>
-    <t>neemt deel aan of leidt multidisciplinaire onderwijsvernieuwingsactiviteiten, projecten en werkgroepen op instellingsniveau en daarbuiten</t>
-  </si>
-  <si>
-    <t>analyseert onderwijsvraagstukken en stelt (nieuwe) programma's op voor de opleiding/vakgroep en stemt dit af mer aanverwante vakgebieden</t>
-  </si>
-  <si>
-    <t>coacht en begeleidt LB collega's bij hun onderwijskundige, begeleidende en organisatorische taken en hun persoonlijke ontwikkeling</t>
-  </si>
-  <si>
-    <t>heeft kennis van: reflectiemodellen (bewust toepassen), persoonlijke communicatiestijlen, kwaliteiten en valkuilen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Om optimaal te kunnen aansluiten op jouw beginsituatie, start de LC leergang met een nulmeting. Op basis van deze ingevulde zelfanalyse en CV voer je een intakegesprek met de trainer(s) en je leidinggevende. </t>
-  </si>
-  <si>
-    <t>De doelen en succescriteria in deze zelfanalyse zijn gebaseerd op het beroepsbeeld mbo LC docent en het functieprofiel LC docent van het Da Vinci College.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In kolom D noteer je wat je graag zou willen leren binnen het domein. </t>
-    </r>
-  </si>
-  <si>
-    <t>Zelfanalyse LC Leergang Da Vinci College</t>
-  </si>
-  <si>
-    <t>Als laatste vragen we je om een voorstel te doen voor een mogelijk doorbraakproject. Zie ook tabblad doorbraakproject</t>
-  </si>
-  <si>
-    <t>Ingevuld voorbeeld zelfanalyse tbv intake</t>
-  </si>
-  <si>
-    <t>Dit weet/kan ik al, laat ik in mijn praktijk zien </t>
-  </si>
-  <si>
-    <t>Zelf-analyse (1-4) </t>
-  </si>
-  <si>
-    <t>Dit wil ik graag leren </t>
-  </si>
-  <si>
-    <t>Afgelopen jaar ben ik als trekker verantwoordelijk geweest voor vakgroep X. We werken met een jaarplan met doelen. Maandelijks zit ik vergadering voor en maak ik agenda. Daarin evalueren we onze voortgang. Ik heb bila's met mijn leidinggevende. Als er iets is trekken collega's bij mij aan de bel. Als ik er niet uitkom bespreek ik dat met mijn  leidinggevende </t>
-  </si>
-  <si>
-    <t>3 </t>
-  </si>
-  <si>
-    <t>Ik wil leren om meer te delegeren, als er iets is doe ik het vaak zelf.  </t>
-  </si>
-  <si>
-    <t>Ik heb een masterclass gevolgd waarin ik kennis heb opgedaan over modulair onderwijs. Ik heb met mijn leidinggevende overlegd over wat ik heb geleerd en tijdens een studiedag heb ik hierover verteld en een werkvorm begeleid. De uitkomsten heb ik besproken met mijn leidinggevende en we hebben hier een planning voor opgenomen in het teamplan voor volgend schooljaar.   </t>
-  </si>
-  <si>
-    <t>2 </t>
-  </si>
-  <si>
-    <t>Ik moet nog bespreken hoe ik mijn collega's hierin meeneem. Bij sommige collega's ervaar ik weerstand. </t>
-  </si>
-  <si>
-    <t>Vanuit mijn rol als examenleider was ik betrokken bij het inspectiebezoek. Ter voorbereiding hebben we het waarderingskader doorgenomen en een zelfanalyse gemaakt. Tijdens het bezoek heb ik vanuit mijn rol vragen beantwoord. Ik ben me ervan bewust dat we de uitkomsten goed moeten oppakken om ervoor te zorgen dat we verbeterpunten blijvend ontwikkelen en borgen. </t>
-  </si>
-  <si>
-    <t>Ik ken eigenlijk geen theorieën mbt leidinggeven.  </t>
-  </si>
-  <si>
-    <t>Kenmerken van een doorbraakproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Een goed doorbraakproject voldoet aan de volgende kenmerken: </t>
-  </si>
-  <si>
-    <t>•</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant: sluit aan bij het teamplan en draagt bij aan de strategische thema’s van Zadkine. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persoonlijk: de LC docent voelt het probleem en is betrokken bij het onderwerp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex: voldoende zwaarte/omvang om als leerproject te kunnen dienen – sluit aan bij de leerdoelen van het LB-LC-ontwikkeltraject.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teambreed: voldoende mogelijkheden om collega’s te betrekken bij het ontwerp.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actueel: de behoefte aan het project moet urgent en actueel zijn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concreet: duidelijke succescriteria en concrete producten/processen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afgebakend en haalbaar: de ontwikkelde producten moeten voor het einde van de leergang opgeleverd kunnen worden. </t>
+    <t>Expert</t>
   </si>
   <si>
     <r>
@@ -676,6 +639,61 @@
     </r>
   </si>
   <si>
+    <t>Domein 1: Het verzorgen van (beroeps)onderwijs voor studenten</t>
+  </si>
+  <si>
+    <t>Dit weet/kan ik al, laat ik in mijn praktijk zien</t>
+  </si>
+  <si>
+    <t>Zelf-analyse (1-4)</t>
+  </si>
+  <si>
+    <t>Succescriteria</t>
+  </si>
+  <si>
+    <t>Dit wil ik graag leren</t>
+  </si>
+  <si>
+    <t>Nul-meting na intake-gesprek (1-4)</t>
+  </si>
+  <si>
+    <t>Leerlogboek/reflectie gedurende de leergang: betekenisvolle leermomenten</t>
+  </si>
+  <si>
+    <t>Eindreflectie: dit heb ik geleerd</t>
+  </si>
+  <si>
+    <t>Na-meting  
+(1-4)</t>
+  </si>
+  <si>
+    <t>1. Nee zou niet weten wat DVC onderwojsconcept is. 2. Wek alleen met niveau 4 studenten. 3. Schrijf al 4 jaar mijn eigen lesprogramma;s die aansluiten op de lesmethodieken die ik zelf heb ontwikkeld. Daarbij de keuzes gemaakt van het lesmateriaal en hoe het gegeven wordt. 4. Ja. 5. Continue en ben nog steeds aan het veranderen en toevoegen van lesmateriaal. 6. Ben continue bezig met verbeteren van kwaliteit van het onderwijs maar zie daar geen rol in van de leidinggevende.</t>
+  </si>
+  <si>
+    <t>hanteert vernieuwende didactsiche methoden en werkvormen gebaseerd op het DVC onderwijsconcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik wil graag niet op een eiland zitten, maar collega;s inspireren en meekrijgen bij vernieuwingen in het lesprogramma. </t>
+  </si>
+  <si>
+    <t>werkt met verschillende doelgroepen in meerdere niveaus waarbij doelgroep en niveau ieder hun eigen specifieke aanpak vragen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoekt actief naar vernieuwd onderwijs (bijv blended learning)… en implementeert. </t>
+  </si>
+  <si>
+    <t>legt verbindingen tussen diverse vakgebieden</t>
+  </si>
+  <si>
+    <t>evalueert en stelt het onderwijsproces bij (pdca)</t>
+  </si>
+  <si>
+    <t>denkt mee met leidinggevende over kwaliteit onderwijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heb hier kennis van opgedaan met PDG maar er is geen tijd in de huidige aanstelling om dit voor het lesmateriaal te </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -697,6 +715,33 @@
     </r>
   </si>
   <si>
+    <t>Er moet tijd beschikbaar zijn om dit toe te passen op de lessen en lesmateriaal.</t>
+  </si>
+  <si>
+    <t>Domein 2: Het organiseren van (beroeps)onderwijs</t>
+  </si>
+  <si>
+    <t>1. Nee nog niet gedaan. 2. Bezoek bedrijven bij stage en afstudeer. Bezoeken. 3. Ja heb dat gedaan en neem besluiten binnen team. 4. Alle lessen worden doormij zelf geschreven en uitgevoerd</t>
+  </si>
+  <si>
+    <t>vertegenwoordigt het team/de opleiding/vakgroep bij toeleverende scholen en samenwerkende bedrijven</t>
+  </si>
+  <si>
+    <t>Collega's meekrojgen in nieuwe methoden en ontwikkelingen</t>
+  </si>
+  <si>
+    <t>neemt initiatieven die de samenwerking tussen DVC en het werkveld/partners/overlegorganen bevordert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coördineert een vakgroep en/of een project binnen de opleiding of het team </t>
+  </si>
+  <si>
+    <t>draagt zorg voor de organisatie van nieuwe methodieken, praktijkopdrachten,  leerlijnen, lesplanning,  OER, examenplannen, leerlingenzorg en kwaliteitszorg</t>
+  </si>
+  <si>
+    <t>Ontwikkel leerlijn en heb leiding gegeven aan projecten.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -714,8 +759,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: kwalificatiedossier, onderwijsconcepten, ontwerpproces; ontwerpen formatieve en summatieve structuur, design thinking, verandermanagement, projectmanagement</t>
-    </r>
+      <t>: kwaliteitszorg, inspectiekader, leerlijnen, projectmanagement, teamontwikkeling, situationeel leidinggeven, maatschappelijke en/of maatschappelijke context, structuur van de branche/bedrijven/instellingen</t>
+    </r>
+  </si>
+  <si>
+    <t>Wat deze termen verder betekenen</t>
+  </si>
+  <si>
+    <t>Domein 3: Het vernieuwen van (beroeps)onderwijs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ja 2. Nee daar is geen ruimte voor in de organisatie 3. Dit is nog in ontwikkeling door steeds veranderende insteek van de opleiding. 4, Ja 5. Ja. 6, Ja maar curriculum is niet vastgelegt </t>
+  </si>
+  <si>
+    <t>analyseert onderwijsvraagstukken en stelt (nieuwe) programma's op voor de opleiding/vakgroep en stemt dit af mer aanverwante vakgebieden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik wil leren om mezelf meer te profileren met de kennis en kunde die ik heb. Naast doener ook teamleden aanzetten om vernieuwingen toe te passen. </t>
+  </si>
+  <si>
+    <t>neemt deel aan of leidt multidisciplinaire onderwijsvernieuwingsactiviteiten, projecten en werkgroepen op instellingsniveau en daarbuiten</t>
+  </si>
+  <si>
+    <t>stemt af met vertegenwoordigers van de branches/het werkveld van hun wensen/eisen op de leerinhoud en het onderwijsprogramma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initieert vernieuwingen en ontwikkelingen (eigen vakgebied)  </t>
+  </si>
+  <si>
+    <t>werkt vanuit het onderwijsteam samen met het werkveld  kan buiten eigen context en team overstijgend kijken </t>
+  </si>
+  <si>
+    <t>maakt een vertaling van professionele competenties en taken/activiteiten naar het curriculum (backwards design)</t>
+  </si>
+  <si>
+    <t>Ja, heb hier kennis van maar geen tijd om dit allemaal toe te passen</t>
   </si>
   <si>
     <r>
@@ -735,22 +813,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: collective teacher efficacy, teamontwikkeling, coaching/begeleiding, progressiegericht, creëren professionele leercultuur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Domein 2: Het organiseren van (beroeps) onderwijs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
+      <t>: kwalificatiedossier, onderwijsconcepten, ontwerpproces; ontwerpen formatieve en summatieve structuur, design thinking, verandermanagement, projectmanagement</t>
+    </r>
+  </si>
+  <si>
+    <t>Domein 4: Het deelnemen aan - samenwerken met - het onderwijsteam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Dit is in principe mijn doorbraakproject. </t>
+  </si>
+  <si>
+    <t>coacht en begeleidt LB collega's bij hun onderwijskundige, begeleidende en organisatorische taken en hun persoonlijke ontwikkeling</t>
+  </si>
+  <si>
+    <t>overwicht om verandering door te zetten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herkent de fase van teamontwikkeling en neemt initiatieven voor teamontwikkeling om het team te versterken </t>
+  </si>
+  <si>
+    <t>identificeert problemen en uitdagingen. benoemt kansen en obstakels en vertaalt deze naar acties</t>
+  </si>
+  <si>
+    <t>nee</t>
   </si>
   <si>
     <r>
@@ -770,8 +855,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: kwaliteitszorg, inspectiekader, leerlijnen, projectmanagement, teamontwikkeling, situationeel leidinggeven, maatschappelijke en/of maatschappelijke context, structuur van de branche/bedrijven/instellingen</t>
-    </r>
+      <t>: collective teacher efficacy, teamontwikkeling, coaching/begeleiding, progressiegericht, creëren professionele leercultuur</t>
+    </r>
+  </si>
+  <si>
+    <t>Graag leer ik om teams achter me te krijgen zonder dat daar authositeit achter zit.</t>
+  </si>
+  <si>
+    <t>Domein 5: beroepshouding</t>
+  </si>
+  <si>
+    <t>Opdreunen van methodes is niet mijn ding. Ben beetje stress bestendig (mijn eigen draai eraan) Onderzoek veel en zet dit om naar lesmateriaal. Doe dit op eigen initiatief.</t>
+  </si>
+  <si>
+    <t>pro-actief</t>
+  </si>
+  <si>
+    <t>Hoe ik dit eens niet in mijn eigen tijd aan het doen ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">externe focus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">onderzoekende houding </t>
+  </si>
+  <si>
+    <t>reflecterend tov het team</t>
+  </si>
+  <si>
+    <t>stress bestendig</t>
+  </si>
+  <si>
+    <t>heeft kennis van: reflectiemodellen (bewust toepassen), persoonlijke communicatiestijlen, kwaliteiten en valkuilen</t>
   </si>
   <si>
     <r>
@@ -808,98 +923,172 @@
     <t>Onderwerp Doorbraakproject:</t>
   </si>
   <si>
+    <t xml:space="preserve">Inventariseren en organiseren inspirerend en vernieuwend lesmateriaal </t>
+  </si>
+  <si>
     <t>Wat is de aanleiding voor het project? Wat maakt dat het actueel en urgent is? (max 80 woorden)</t>
   </si>
   <si>
+    <t xml:space="preserve">De normjaartaak heeft geen ruimte voor inspiratie vernieuwing en uitproberen van nieuwe lesinhoud. Voor een beroepsgroep waarbij lesmateriaal van 2 jaar oud niet wenselijk is. Een beroepsgroep waarbij de ontwikkelingen heel hard gaan en een opleiding dat nog steeds in ontwikkeling is en dat altijd zal blijven mis ik de inspiratie van andere werkvelden, en het maken van een brug tussen mijn werkveld en de anderen. </t>
+  </si>
+  <si>
     <t xml:space="preserve">wat wil je aan het eind hebben bereikt? (max 80 woorden) </t>
   </si>
   <si>
+    <t>Ik hoop aan het einde een voorstel te hebben dat geimplementeerd kan worden binnen davinci. Waarbij geborgt is dat docenten geinspireerd worden door collega's en daarmee het lesmateriaal updaten om relevant en interessant te zijn.</t>
+  </si>
+  <si>
+    <t>Ingevuld voorbeeld zelfanalyse tbv intake</t>
+  </si>
+  <si>
+    <r>
+      <t>Domein 2: Het organiseren van (beroeps) onderwijs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Dit weet/kan ik al, laat ik in mijn praktijk zien </t>
+  </si>
+  <si>
+    <t>Zelf-analyse (1-4) </t>
+  </si>
+  <si>
+    <t>Dit wil ik graag leren </t>
+  </si>
+  <si>
+    <t>Afgelopen jaar ben ik als trekker verantwoordelijk geweest voor vakgroep X. We werken met een jaarplan met doelen. Maandelijks zit ik vergadering voor en maak ik agenda. Daarin evalueren we onze voortgang. Ik heb bila's met mijn leidinggevende. Als er iets is trekken collega's bij mij aan de bel. Als ik er niet uitkom bespreek ik dat met mijn  leidinggevende </t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
     <t>coördineert een vakgroep en/of een project binnen de opleiding of het team  </t>
   </si>
   <si>
+    <t>Ik wil leren om meer te delegeren, als er iets is doe ik het vaak zelf.  </t>
+  </si>
+  <si>
+    <t>Ik heb een masterclass gevolgd waarin ik kennis heb opgedaan over modulair onderwijs. Ik heb met mijn leidinggevende overlegd over wat ik heb geleerd en tijdens een studiedag heb ik hierover verteld en een werkvorm begeleid. De uitkomsten heb ik besproken met mijn leidinggevende en we hebben hier een planning voor opgenomen in het teamplan voor volgend schooljaar.   </t>
+  </si>
+  <si>
+    <t>2 </t>
+  </si>
+  <si>
     <t>draagt zorg voor de organisatie van nieuwe methodieken, praktijkopdrachten,  leerlijnen, lesplanning,  OER, examenplannen, leerlingenzorg en kwaliteitszorg </t>
   </si>
   <si>
+    <t>Ik moet nog bespreken hoe ik mijn collega's hierin meeneem. Bij sommige collega's ervaar ik weerstand. </t>
+  </si>
+  <si>
+    <t>Vanuit mijn rol als examenleider was ik betrokken bij het inspectiebezoek. Ter voorbereiding hebben we het waarderingskader doorgenomen en een zelfanalyse gemaakt. Tijdens het bezoek heb ik vanuit mijn rol vragen beantwoord. Ik ben me ervan bewust dat we de uitkomsten goed moeten oppakken om ervoor te zorgen dat we verbeterpunten blijvend ontwikkelen en borgen. </t>
+  </si>
+  <si>
     <t>heeft kennis van: kwaliteitszorg, inspectiekader, leerlijnen, projectmanagement, teamontwikkeling, situationeel leidinggeven </t>
   </si>
   <si>
-    <t>stemt af met vertegenwoordigers van de branches/het werkveld van hun wensen/eisen op de leerinhoud en het onderwijsprogramma</t>
-  </si>
-  <si>
-    <t>werkt vanuit het onderwijsteam samen met het werkveld  kan buiten eigen context en team overstijgend kijken </t>
-  </si>
-  <si>
-    <t>1. Nee zou niet weten wat DVC onderwojsconcept is. 2. Wek alleen met niveau 4 studenten. 3. Schrijf al 4 jaar mijn eigen lesprogramma;s die aansluiten op de lesmethodieken die ik zelf heb ontwikkeld. Daarbij de keuzes gemaakt van het lesmateriaal en hoe het gegeven wordt. 4. Ja. 5. Continue en ben nog steeds aan het veranderen en toevoegen van lesmateriaal. 6. Ben continue bezig met verbeteren van kwaliteit van het onderwijs maar zie daar geen rol in van de leidinggevende.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik wil graag niet op een eiland zitten, maar collega;s inspireren en meekrijgen bij vernieuwingen in het lesprogramma. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heb hier kennis van opgedaan met PDG maar er is geen tijd in de huidige aanstelling om dit voor het lesmateriaal te </t>
-  </si>
-  <si>
-    <t>Er moet tijd beschikbaar zijn om dit toe te passen op de lessen en lesmateriaal.</t>
-  </si>
-  <si>
-    <t>1. Nee nog niet gedaan. 2. Bezoek bedrijven bij stage en afstudeer. Bezoeken. 3. Ja heb dat gedaan en neem besluiten binnen team. 4. Alle lessen worden doormij zelf geschreven en uitgevoerd</t>
-  </si>
-  <si>
-    <t>Collega's meekrojgen in nieuwe methoden en ontwikkelingen</t>
-  </si>
-  <si>
-    <t>Ontwikkel leerlijn en heb leiding gegeven aan projecten.</t>
-  </si>
-  <si>
-    <t>Wat deze termen verder betekenen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ja 2. Nee daar is geen ruimte voor in de organisatie 3. Dit is nog in ontwikkeling door steeds veranderende insteek van de opleiding. 4, Ja 5. Ja. 6, Ja maar curriculum is niet vastgelegt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ik wil leren om mezelf meer te profileren met de kennis en kunde die ik heb. Naast doener ook teamleden aanzetten om vernieuwingen toe te passen. </t>
-  </si>
-  <si>
-    <t>Ja, heb hier kennis van maar geen tijd om dit allemaal toe te passen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Dit is in principe mijn doorbraakproject. </t>
-  </si>
-  <si>
-    <t>overwicht om verandering door te zetten</t>
-  </si>
-  <si>
-    <t>Graag leer ik om teams achter me te krijgen zonder dat daar authositeit achter zit.</t>
-  </si>
-  <si>
-    <t>nee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventariseren en organiseren inspirerend en vernieuwend lesmateriaal </t>
-  </si>
-  <si>
-    <t>Opdreunen van methodes is niet mijn ding. Ben beetje stress bestendig (mijn eigen draai eraan) Onderzoek veel en zet dit om naar lesmateriaal. Doe dit op eigen initiatief.</t>
-  </si>
-  <si>
-    <t>Hoe ik dit eens niet in mijn eigen tijd aan het doen ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De normjaartaak heeft geen ruimte voor inspiratie vernieuwing en uitproberen van nieuwe lesinhoud. Voor een beroepsgroep waarbij lesmateriaal van 2 jaar oud niet wenselijk is. Een beroepsgroep waarbij de ontwikkelingen heel hard gaan en een opleiding dat nog steeds in ontwikkeling is en dat altijd zal blijven mis ik de inspiratie van andere werkvelden, en het maken van een brug tussen mijn werkveld en de anderen. </t>
-  </si>
-  <si>
-    <t>Ik hoop aan het einde een voorstel te hebben dat geimplementeerd kan worden binnen davinci. Waarbij geborgt is dat docenten geinspireerd worden door collega's en daarmee het lesmateriaal updaten om relevant en interessant te zijn.</t>
-  </si>
-  <si>
-    <t>Arjan Kamberg</t>
-  </si>
-  <si>
-    <t>MKR + Software development</t>
+    <t>Ik ken eigenlijk geen theorieën mbt leidinggeven.  </t>
+  </si>
+  <si>
+    <t>Kenmerken van een doorbraakproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een goed doorbraakproject voldoet aan de volgende kenmerken: </t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant: sluit aan bij het teamplan en draagt bij aan de strategische thema’s van Zadkine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persoonlijk: de LC docent voelt het probleem en is betrokken bij het onderwerp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex: voldoende zwaarte/omvang om als leerproject te kunnen dienen – sluit aan bij de leerdoelen van het LB-LC-ontwikkeltraject.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teambreed: voldoende mogelijkheden om collega’s te betrekken bij het ontwerp.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actueel: de behoefte aan het project moet urgent en actueel zijn. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concreet: duidelijke succescriteria en concrete producten/processen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afgebakend en haalbaar: de ontwikkelde producten moeten voor het einde van de leergang opgeleverd kunnen worden. </t>
+  </si>
+  <si>
+    <t>kent zichzelf goed</t>
+  </si>
+  <si>
+    <t>ik doe het alleen wel….</t>
+  </si>
+  <si>
+    <t>veel verschillende leidinggevenden</t>
+  </si>
+  <si>
+    <t>meer nee zeggen, om rust te krijgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heeft verschillende collega's om mee te sparren, </t>
+  </si>
+  <si>
+    <t>martin en rena één straat verder</t>
+  </si>
+  <si>
+    <t>check de behoefte van het team</t>
+  </si>
+  <si>
+    <t>hoe zorgen we nu dat het onderwijs van ons wordt en we aan het begin van de opleiding helder is?</t>
+  </si>
+  <si>
+    <t>persoonlijke leerdoelen</t>
+  </si>
+  <si>
+    <t>overview hanteren, afstand nemen tot het probleem.</t>
+  </si>
+  <si>
+    <t>tip leiding gevende</t>
+  </si>
+  <si>
+    <t>eigen leerdoel</t>
+  </si>
+  <si>
+    <t>zou graag een paar studiedagen geven om hieraan te werken. Voorbeeld stofzuigen.</t>
+  </si>
+  <si>
+    <t>niet alles zelf doen, team mee nemen</t>
+  </si>
+  <si>
+    <t>verandermanagement</t>
+  </si>
+  <si>
+    <t>belemmeringen</t>
+  </si>
+  <si>
+    <t>niet al het onderwijs staat al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valt op: </t>
+  </si>
+  <si>
+    <t>leergierig, staat open voor nieuwe informatie.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,6 +1272,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1500,6 +1695,15 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1554,12 +1758,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1569,15 +1797,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1629,6 +1848,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1659,36 +1881,9 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1944,8 +2139,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tom Jansma" id="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" userId="S::t.jansma@onderwijsadvies.nl::b9f99a5a-5c87-4a3a-ba9a-55f844c1a413" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2239,392 +2440,442 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C33" dT="2023-10-24T11:47:48.46" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{53E46D01-B9B6-4D6F-92ED-98C418F437B9}">
+    <text>hoe?</text>
+  </threadedComment>
+  <threadedComment ref="C33" dT="2023-10-24T12:26:14.26" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{9F94B086-7697-4B2B-A1C9-9091EDEC7B8F}" parentId="{53E46D01-B9B6-4D6F-92ED-98C418F437B9}">
+    <text>Na 5 jaar creativiteit en goede intenties veel onderwijs ontwikkeld en aangepast. Analyse onderwijs bronnen; 
+- gesprekjes met collega's
+- analyses studenten
+Nu vooral op basis van gevoel en goede intenties</text>
+  </threadedComment>
+  <threadedComment ref="C34" dT="2023-10-24T11:48:25.16" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{81B04151-62A8-4881-AA61-BC77269EB0E6}">
+    <text>interessant</text>
+  </threadedComment>
+  <threadedComment ref="A35" dT="2023-10-24T11:48:48.92" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{40B1A2A2-A229-4E43-B3FB-217CE2F895DC}">
+    <text>geen tijd... wel voor lc?</text>
+  </threadedComment>
+  <threadedComment ref="D35" dT="2023-10-24T11:49:07.17" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{3627D291-D1A8-4FC2-BAF3-C6AD9CB0255F}">
+    <text>hoe ga jij zorgen dat je voldoende gefacilliteerd wordt voor LC?</text>
+  </threadedComment>
+  <threadedComment ref="D38" dT="2023-10-24T11:49:54.25" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{83673C5E-D2DA-49E6-84DA-923F8D959CF0}">
+    <text>waar loop je nu tegenaan?</text>
+  </threadedComment>
+  <threadedComment ref="D42" dT="2023-10-24T11:50:22.55" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{AD6739B1-C453-4AA6-A29F-EC09C41C8CB9}">
+    <text>voldoende uitdaging dus.</text>
+  </threadedComment>
+  <threadedComment ref="C46" dT="2023-10-24T11:50:50.25" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{D41D517E-6D1F-4C50-8AE2-974F19FD3487}">
+    <text>in antwoord wederom tijd frustratie</text>
+  </threadedComment>
+  <threadedComment ref="C50" dT="2023-10-24T11:51:42.57" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{A27A72F9-C6AF-4FCA-BDD7-09410459C2F8}">
+    <text>waar staan jullie nu in dat proces? Wat is jouw rol daarin? waar loop je tegenaan?</text>
+  </threadedComment>
+  <threadedComment ref="A51" dT="2023-10-24T11:52:33.35" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{7C5F46FF-EDDD-4700-B650-09BBF2EB7389}">
+    <text>als je tijd zou hebben, wat zou dan nu heeft eerste aandacht van jou krijgen?</text>
+  </threadedComment>
+  <threadedComment ref="C51" dT="2023-10-24T11:53:08.65" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{80646D38-68A7-471F-BB92-D4D1081943C8}">
+    <text>heb je collega's die op jouw niveau met jou kunnen sparren?</text>
+  </threadedComment>
+  <threadedComment ref="D62" dT="2023-10-24T11:55:07.43" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{CCC51276-5B59-454C-A0DE-C89261F50C64}">
+    <text>wederom frustratie</text>
+  </threadedComment>
+  <threadedComment ref="B72" dT="2023-10-24T12:47:05.44" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{B87AF16A-8240-4427-B1FC-365A8791BDEC}">
+    <text>Meer details geven, kaders en goede vooraarden van bijv. de basis..</text>
+  </threadedComment>
+  <threadedComment ref="B74" dT="2023-10-24T11:56:49.34" personId="{47EFE897-1DD3-4E3A-84A0-92C575E44DAB}" id="{1DD0446D-C0F2-44E0-99EA-DFDEEB88DEC2}">
+    <text>zijn daarmee de problemen opgelost? of moet er eerst een vast curriculum staan? tijd worden vrij gemaakt? Goed over nadenken en sparren met TL bij schrijven van PVA</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB5A99-295F-4B0E-B8A4-159CB5CBFB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB5A99-295F-4B0E-B8A4-159CB5CBFB2B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DY74"/>
+  <dimension ref="A1:DY92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="35.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="35.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="127" width="8.83203125" style="12"/>
-    <col min="128" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="35.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="127" width="8.85546875" style="12"/>
+    <col min="128" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+    <row r="1" spans="1:8" ht="42" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
       <c r="F1" s="43"/>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="23.25">
       <c r="A2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="94"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="102"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="94"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="102"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="113">
+        <v>5</v>
+      </c>
+      <c r="B4" s="103">
         <v>45223</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="102"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="23.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="F5" s="44"/>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+    <row r="6" spans="1:8" ht="28.7" customHeight="1">
+      <c r="A6" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="45"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A7" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="24" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:129">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:129">
       <c r="A18" s="6" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:129">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:129">
       <c r="A20" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:129">
       <c r="A21" s="8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-    </row>
-    <row r="22" spans="1:129" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+    </row>
+    <row r="22" spans="1:129" ht="46.35" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
       </c>
-      <c r="C22" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-    </row>
-    <row r="23" spans="1:129" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+    </row>
+    <row r="23" spans="1:129" ht="46.35" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-    </row>
-    <row r="24" spans="1:129" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+    </row>
+    <row r="24" spans="1:129" ht="46.35" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-    </row>
-    <row r="25" spans="1:129" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+    </row>
+    <row r="25" spans="1:129" ht="46.35" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B25" s="11">
         <v>4</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-    </row>
-    <row r="26" spans="1:129" x14ac:dyDescent="0.2">
+      <c r="C25" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+    </row>
+    <row r="26" spans="1:129">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:129" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:129" s="17" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:129" s="15" customFormat="1" ht="18.75">
+      <c r="A27" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:129" s="17" customFormat="1" ht="90">
       <c r="A28" s="46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:129" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="78">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:129" s="12" customFormat="1" ht="45">
+      <c r="A29" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="86">
         <v>3</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="84"/>
+        <v>39</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="89"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="92"/>
       <c r="DX29" s="1"/>
       <c r="DY29" s="1"/>
     </row>
-    <row r="30" spans="1:129" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
+    <row r="30" spans="1:129" s="12" customFormat="1" ht="60">
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="85"/>
+        <v>41</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="93"/>
       <c r="DX30" s="1"/>
       <c r="DY30" s="1"/>
     </row>
-    <row r="31" spans="1:129" s="12" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
+    <row r="31" spans="1:129" s="12" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="85"/>
+        <v>42</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="93"/>
       <c r="DX31" s="1"/>
       <c r="DY31" s="1"/>
     </row>
-    <row r="32" spans="1:129" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
+    <row r="32" spans="1:129" s="12" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="85"/>
+        <v>43</v>
+      </c>
+      <c r="D32" s="87"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="93"/>
       <c r="DX32" s="1"/>
       <c r="DY32" s="1"/>
     </row>
-    <row r="33" spans="1:129" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
+    <row r="33" spans="1:129" s="12" customFormat="1" ht="30">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="85"/>
+        <v>44</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="93"/>
       <c r="DX33" s="1"/>
       <c r="DY33" s="1"/>
     </row>
-    <row r="34" spans="1:129" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
+    <row r="34" spans="1:129" s="12" customFormat="1" ht="30">
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="86"/>
+        <v>45</v>
+      </c>
+      <c r="D34" s="88"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="94"/>
       <c r="DX34" s="1"/>
       <c r="DY34" s="1"/>
     </row>
-    <row r="35" spans="1:129" s="12" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:129" s="12" customFormat="1" ht="120">
       <c r="A35" s="27" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B35" s="28">
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="28"/>
@@ -2633,42 +2884,42 @@
       <c r="DX35" s="1"/>
       <c r="DY35" s="1"/>
     </row>
-    <row r="36" spans="1:129" s="15" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-    </row>
-    <row r="37" spans="1:129" s="16" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:129" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A36" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+    </row>
+    <row r="37" spans="1:129" s="16" customFormat="1" ht="90">
       <c r="A37" s="46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H37" s="49" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
@@ -2792,522 +3043,522 @@
       <c r="DX37" s="19"/>
       <c r="DY37" s="19"/>
     </row>
-    <row r="38" spans="1:129" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="107">
+    <row r="38" spans="1:129" s="17" customFormat="1" ht="45">
+      <c r="A38" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="77">
         <v>2</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="87"/>
+      <c r="D38" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="80"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="95"/>
       <c r="DX38" s="19"/>
       <c r="DY38" s="19"/>
     </row>
-    <row r="39" spans="1:129" s="17" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
-      <c r="B39" s="108"/>
+    <row r="39" spans="1:129" s="17" customFormat="1" ht="60">
+      <c r="A39" s="57"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="88"/>
+        <v>53</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="96"/>
       <c r="DX39" s="19"/>
       <c r="DY39" s="19"/>
     </row>
-    <row r="40" spans="1:129" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
-      <c r="B40" s="108"/>
+    <row r="40" spans="1:129" s="12" customFormat="1" ht="45">
+      <c r="A40" s="57"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="88"/>
+        <v>54</v>
+      </c>
+      <c r="D40" s="75"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="96"/>
       <c r="DX40" s="1"/>
       <c r="DY40" s="1"/>
     </row>
-    <row r="41" spans="1:129" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="109"/>
+    <row r="41" spans="1:129" s="12" customFormat="1" ht="75">
+      <c r="A41" s="58"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="89"/>
+        <v>55</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="97"/>
       <c r="DX41" s="1"/>
       <c r="DY41" s="1"/>
     </row>
-    <row r="42" spans="1:129" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="112">
+    <row r="42" spans="1:129" s="12" customFormat="1" ht="120">
+      <c r="A42" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="54">
         <v>1</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="111" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="77"/>
+        <v>57</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="82"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="51"/>
       <c r="DX42" s="1"/>
       <c r="DY42" s="1"/>
     </row>
-    <row r="43" spans="1:129" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-    </row>
-    <row r="44" spans="1:129" s="17" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:129" s="15" customFormat="1" ht="18.75">
+      <c r="A43" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+    </row>
+    <row r="44" spans="1:129" s="17" customFormat="1" ht="90">
       <c r="A44" s="46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="DX44" s="19"/>
       <c r="DY44" s="19"/>
     </row>
-    <row r="45" spans="1:129" s="17" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A45" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="53">
+    <row r="45" spans="1:129" s="17" customFormat="1" ht="60">
+      <c r="A45" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="56">
         <v>3</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="90"/>
+        <v>61</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="83"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="98"/>
       <c r="DX45" s="19"/>
       <c r="DY45" s="19"/>
     </row>
-    <row r="46" spans="1:129" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
+    <row r="46" spans="1:129" s="12" customFormat="1" ht="75">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="91"/>
+        <v>63</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="99"/>
       <c r="DX46" s="1"/>
       <c r="DY46" s="1"/>
     </row>
-    <row r="47" spans="1:129" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
+    <row r="47" spans="1:129" s="12" customFormat="1" ht="60">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="91"/>
+        <v>64</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="99"/>
       <c r="DX47" s="1"/>
       <c r="DY47" s="1"/>
     </row>
-    <row r="48" spans="1:129" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
+    <row r="48" spans="1:129" s="12" customFormat="1" ht="30">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="91"/>
+        <v>65</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="99"/>
       <c r="DX48" s="1"/>
       <c r="DY48" s="1"/>
     </row>
-    <row r="49" spans="1:129" s="12" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
+    <row r="49" spans="1:129" s="12" customFormat="1" ht="40.700000000000003" customHeight="1">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="91"/>
+        <v>66</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="99"/>
       <c r="DX49" s="1"/>
       <c r="DY49" s="1"/>
     </row>
-    <row r="50" spans="1:129" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
+    <row r="50" spans="1:129" s="12" customFormat="1" ht="60">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="55"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="92"/>
+        <v>67</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="100"/>
       <c r="DX50" s="1"/>
       <c r="DY50" s="1"/>
     </row>
-    <row r="51" spans="1:129" s="12" customFormat="1" ht="85.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="57">
+    <row r="51" spans="1:129" s="12" customFormat="1" ht="85.35" customHeight="1">
+      <c r="A51" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="60">
         <v>1</v>
       </c>
-      <c r="C51" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="65"/>
+      <c r="C51" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="68"/>
       <c r="DX51" s="1"/>
       <c r="DY51" s="1"/>
     </row>
-    <row r="52" spans="1:129" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="67"/>
+    <row r="52" spans="1:129" s="12" customFormat="1">
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="70"/>
       <c r="DX52" s="1"/>
       <c r="DY52" s="1"/>
     </row>
-    <row r="53" spans="1:129" s="15" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-    </row>
-    <row r="54" spans="1:129" s="17" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:129" s="15" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A53" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+    </row>
+    <row r="54" spans="1:129" s="17" customFormat="1" ht="90">
       <c r="A54" s="46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G54" s="49" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="DX54" s="19"/>
       <c r="DY54" s="19"/>
     </row>
-    <row r="55" spans="1:129" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="57">
+    <row r="55" spans="1:129" s="12" customFormat="1" ht="60">
+      <c r="A55" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="60">
         <v>1</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="62"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="65"/>
+        <v>72</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="65"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="68"/>
       <c r="DX55" s="1"/>
       <c r="DY55" s="1"/>
     </row>
-    <row r="56" spans="1:129" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
+    <row r="56" spans="1:129" s="12" customFormat="1" ht="63" customHeight="1">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="66"/>
+        <v>74</v>
+      </c>
+      <c r="D56" s="64"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="69"/>
       <c r="DX56" s="1"/>
       <c r="DY56" s="1"/>
     </row>
-    <row r="57" spans="1:129" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
+    <row r="57" spans="1:129" s="12" customFormat="1" ht="45">
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
       <c r="C57" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="67"/>
+        <v>75</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="70"/>
       <c r="DX57" s="1"/>
       <c r="DY57" s="1"/>
     </row>
-    <row r="58" spans="1:129" s="12" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="57">
+    <row r="58" spans="1:129" s="12" customFormat="1" ht="42.6" customHeight="1">
+      <c r="A58" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="60">
         <v>1</v>
       </c>
-      <c r="C58" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="65"/>
+      <c r="C58" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="59"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="68"/>
       <c r="DX58" s="1"/>
       <c r="DY58" s="1"/>
     </row>
-    <row r="59" spans="1:129" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="67"/>
+    <row r="59" spans="1:129" s="12" customFormat="1">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="70"/>
       <c r="DX59" s="1"/>
       <c r="DY59" s="1"/>
     </row>
-    <row r="60" spans="1:129" s="15" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-    </row>
-    <row r="61" spans="1:129" s="17" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:129" s="15" customFormat="1" ht="21.6" customHeight="1">
+      <c r="A60" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+    </row>
+    <row r="61" spans="1:129" s="17" customFormat="1" ht="90">
       <c r="A61" s="46" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E61" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G61" s="49" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H61" s="49" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="DX61" s="19"/>
       <c r="DY61" s="19"/>
     </row>
-    <row r="62" spans="1:129" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="57">
+    <row r="62" spans="1:129" s="12" customFormat="1">
+      <c r="A62" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="60">
         <v>2</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="65"/>
+        <v>81</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="65"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="68"/>
       <c r="DX62" s="1"/>
       <c r="DY62" s="1"/>
     </row>
-    <row r="63" spans="1:129" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
+    <row r="63" spans="1:129" s="12" customFormat="1">
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="66"/>
+        <v>83</v>
+      </c>
+      <c r="D63" s="64"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="69"/>
       <c r="DX63" s="1"/>
       <c r="DY63" s="1"/>
     </row>
-    <row r="64" spans="1:129" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
+    <row r="64" spans="1:129" s="12" customFormat="1">
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="66"/>
+        <v>84</v>
+      </c>
+      <c r="D64" s="64"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="69"/>
       <c r="DX64" s="1"/>
       <c r="DY64" s="1"/>
     </row>
-    <row r="65" spans="1:129" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
+    <row r="65" spans="1:129" s="12" customFormat="1">
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="66"/>
+        <v>85</v>
+      </c>
+      <c r="D65" s="64"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="69"/>
       <c r="DX65" s="1"/>
       <c r="DY65" s="1"/>
     </row>
-    <row r="66" spans="1:129" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
+    <row r="66" spans="1:129" s="12" customFormat="1">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="66"/>
+        <v>86</v>
+      </c>
+      <c r="D66" s="64"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="69"/>
       <c r="DX66" s="1"/>
       <c r="DY66" s="1"/>
     </row>
-    <row r="67" spans="1:129" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="66"/>
+    <row r="67" spans="1:129" s="12" customFormat="1">
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="64"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="69"/>
       <c r="DX67" s="1"/>
       <c r="DY67" s="1"/>
     </row>
-    <row r="68" spans="1:129" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="67"/>
+    <row r="68" spans="1:129" s="12" customFormat="1">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="70"/>
       <c r="DX68" s="1"/>
       <c r="DY68" s="1"/>
     </row>
-    <row r="70" spans="1:129" x14ac:dyDescent="0.2">
-      <c r="A70" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
+    <row r="70" spans="1:129">
+      <c r="A70" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
     </row>
-    <row r="71" spans="1:129" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:129">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -3316,44 +3567,148 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="1:129" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:129" ht="20.45" customHeight="1">
       <c r="A72" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+    </row>
+    <row r="73" spans="1:129" ht="45">
+      <c r="A73" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-    </row>
-    <row r="73" spans="1:129" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="48" t="s">
+      <c r="B73" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-    </row>
-    <row r="74" spans="1:129" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+    </row>
+    <row r="74" spans="1:129" ht="42.6" customHeight="1">
       <c r="A74" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
+      <c r="B74" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+    </row>
+    <row r="76" spans="1:129">
+      <c r="A76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:129" ht="45">
+      <c r="C77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:129">
+      <c r="C78" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:129">
+      <c r="C80" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30">
+      <c r="C81" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="C82" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="45">
+      <c r="A84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="1">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30">
+      <c r="A92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="73">
@@ -3437,6 +3792,7 @@
     <brk id="25" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3448,81 +3804,81 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="63.5" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-    </row>
-    <row r="4" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A3" s="112" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1">
       <c r="A4" s="30" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="109.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="109.35" customHeight="1" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="144.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="144.6" customHeight="1" thickBot="1">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="132" customHeight="1" thickBot="1">
       <c r="A7" s="23" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3541,14 +3897,14 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="37" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -3564,7 +3920,7 @@
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3580,9 +3936,9 @@
       <c r="M2" s="36"/>
       <c r="N2" s="36"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="36" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3598,7 +3954,7 @@
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3614,12 +3970,12 @@
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -3634,12 +3990,12 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
@@ -3654,12 +4010,12 @@
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -3674,12 +4030,12 @@
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
@@ -3694,12 +4050,12 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -3714,12 +4070,12 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
@@ -3734,12 +4090,12 @@
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="36" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -3754,7 +4110,7 @@
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -3770,7 +4126,7 @@
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -3792,53 +4148,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6d2d9fd-f3a5-492e-9fcc-803996d2b457">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f738f939-3427-42eb-ba50-9bd3581327ef" xsi:nil="true"/>
-    <Fase xmlns="a6d2d9fd-f3a5-492e-9fcc-803996d2b457" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010089B610AB20E88D46BE8938334CBF5986" ma:contentTypeVersion="20" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="01ef04dc773176826d0eac6856fe7da1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6d2d9fd-f3a5-492e-9fcc-803996d2b457" xmlns:ns3="f738f939-3427-42eb-ba50-9bd3581327ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd2f7abccb38b89914bc17dbc09f0ddd" ns2:_="" ns3:_="">
-    <xsd:import namespace="a6d2d9fd-f3a5-492e-9fcc-803996d2b457"/>
-    <xsd:import namespace="f738f939-3427-42eb-ba50-9bd3581327ef"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0DC448798116E4E81E22EF453B46A68" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a4a4b87b58cf91c51045e0e39445d0c8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c320317c-7a57-41e1-a8cc-3d687898bde5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85b09fe497d973d3302542d44a0ea98b" ns2:_="">
+    <xsd:import namespace="c320317c-7a57-41e1-a8cc-3d687898bde5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:ReferenceId" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:Fase" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -3847,145 +4168,28 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a6d2d9fd-f3a5-492e-9fcc-803996d2b457" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c320317c-7a57-41e1-a8cc-3d687898bde5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="ReferenceId" ma:index="8" nillable="true" ma:displayName="ReferenceId" ma:indexed="true" ma:internalName="ReferenceId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d12f4678-e05b-4ab0-a523-31629c83ef1f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Fase" ma:index="24" nillable="true" ma:displayName="Fase" ma:format="Dropdown" ma:internalName="Fase">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceFillIn">
-            <xsd:sequence>
-              <xsd:element name="Value" maxOccurs="unbounded" minOccurs="0" nillable="true">
-                <xsd:simpleType>
-                  <xsd:union memberTypes="dms:Text">
-                    <xsd:simpleType>
-                      <xsd:restriction base="dms:Choice">
-                        <xsd:enumeration value="Fase 0"/>
-                        <xsd:enumeration value="Keuze 2"/>
-                        <xsd:enumeration value="Fase 2"/>
-                        <xsd:enumeration value="Fase 3"/>
-                        <xsd:enumeration value="Niet Fase gebonden"/>
-                      </xsd:restriction>
-                    </xsd:simpleType>
-                  </xsd:union>
-                </xsd:simpleType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f738f939-3427-42eb-ba50-9bd3581327ef" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ce2e0a36-be45-4f21-ae9a-66927e81b661}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f738f939-3427-42eb-ba50-9bd3581327ef">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4087,7 +4291,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="c320317c-7a57-41e1-a8cc-3d687898bde5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{865D1056-C32B-43D3-BDA4-DE94E38132AD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5900D4E5-F5EC-4E67-B771-0D0AC48CDE38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4095,40 +4320,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23C05C5-DD40-4643-A549-0EB9E5B31365}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f79fcfc1-bf9a-4c5d-b41c-6f140ced89f2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d46e90be-6f4a-48b9-8c52-0474db5b2788"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a6d2d9fd-f3a5-492e-9fcc-803996d2b457"/>
-    <ds:schemaRef ds:uri="f738f939-3427-42eb-ba50-9bd3581327ef"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDB7A72-EA2F-454B-B209-33E6A92C5361}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a6d2d9fd-f3a5-492e-9fcc-803996d2b457"/>
-    <ds:schemaRef ds:uri="f738f939-3427-42eb-ba50-9bd3581327ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>